--- a/biology/Botanique/Plectranthus_caninus/Plectranthus_caninus.xlsx
+++ b/biology/Botanique/Plectranthus_caninus/Plectranthus_caninus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plectranthus caninus est une espèce de plantes à fleurs de la famille des Lamiaceae. C'est une espèce de coléus d'Afrique et d'Inde.
 </t>
@@ -511,15 +523,87 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1821 par le botaniste allemand Albrecht Wilhelm Roth (1757-1834).
-Synonymes
-Selon la WCSP de Kew : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1821 par le botaniste allemand Albrecht Wilhelm Roth (1757-1834).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plectranthus_caninus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_caninus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la WCSP de Kew : 
 Coleus caninus (Roth) Vatke
 Majana canina (Roth) Kuntze
-Liste des sous-espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (30 novembre 2015)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plectranthus_caninus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_caninus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 novembre 2015) :
 sous-espèce Plectranthus caninus subsp. caninus.
 Synonymes :
 Germanea crassifolia Poir.
